--- a/wwwroot/uploads/advanced_IF.xlsx
+++ b/wwwroot/uploads/advanced_IF.xlsx
@@ -507,8 +507,8 @@
         <v>35</v>
       </c>
       <c r="G2" s="0" t="str">
-        <f>IF(F2=MIN($F$2:$F$10),"Kém nhất"," ")</f>
-        <v> </v>
+        <f>IF(F2=Max($F$2:$F$10),"Cao nhất"," ")</f>
+        <v>Cao nhất</v>
       </c>
     </row>
     <row r="3">
@@ -531,8 +531,8 @@
         <v>35</v>
       </c>
       <c r="G3" s="0" t="str">
-        <f>IF(F3=MIN($F$2:$F$10),"Kém nhất"," ")</f>
-        <v> </v>
+        <f>IF(F3=Max($F$2:$F$10),"Cao nhất"," ")</f>
+        <v>Cao nhất</v>
       </c>
     </row>
     <row r="4">
@@ -555,8 +555,8 @@
         <v>5</v>
       </c>
       <c r="G4" s="0" t="str">
-        <f>IF(F4=MIN($F$2:$F$10),"Kém nhất"," ")</f>
-        <v>Kém nhất</v>
+        <f>IF(F4=Max($F$2:$F$10),"Cao nhất"," ")</f>
+        <v> </v>
       </c>
     </row>
     <row r="5">
@@ -579,7 +579,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="0" t="str">
-        <f>IF(F5=MIN($F$2:$F$10),"Kém nhất"," ")</f>
+        <f>IF(F5=Max($F$2:$F$10),"Cao nhất"," ")</f>
         <v> </v>
       </c>
     </row>
@@ -603,8 +603,8 @@
         <v>5</v>
       </c>
       <c r="G6" s="0" t="str">
-        <f>IF(F6=MIN($F$2:$F$10),"Kém nhất"," ")</f>
-        <v>Kém nhất</v>
+        <f>IF(F6=Max($F$2:$F$10),"Cao nhất"," ")</f>
+        <v> </v>
       </c>
     </row>
     <row r="7">
@@ -627,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="0" t="str">
-        <f>IF(F7=MIN($F$2:$F$10),"Kém nhất"," ")</f>
+        <f>IF(F7=Max($F$2:$F$10),"Cao nhất"," ")</f>
         <v> </v>
       </c>
     </row>
@@ -651,7 +651,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="0" t="str">
-        <f>IF(F8=MIN($F$2:$F$10),"Kém nhất"," ")</f>
+        <f>IF(F8=Max($F$2:$F$10),"Cao nhất"," ")</f>
         <v> </v>
       </c>
     </row>
@@ -675,8 +675,8 @@
         <v>35</v>
       </c>
       <c r="G9" s="0" t="str">
-        <f>IF(F9=MIN($F$2:$F$10),"Kém nhất"," ")</f>
-        <v> </v>
+        <f>IF(F9=Max($F$2:$F$10),"Cao nhất"," ")</f>
+        <v>Cao nhất</v>
       </c>
     </row>
     <row r="10">
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="G10" s="0" t="str">
-        <f>IF(F10=MIN($F$2:$F$10),"Kém nhất"," ")</f>
+        <f>IF(F10=Max($F$2:$F$10),"Cao nhất"," ")</f>
         <v> </v>
       </c>
     </row>
